--- a/medicine/Enfance/Le_Monstre_aux_deux_têtes/Le_Monstre_aux_deux_têtes.xlsx
+++ b/medicine/Enfance/Le_Monstre_aux_deux_têtes/Le_Monstre_aux_deux_têtes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Monstre_aux_deux_t%C3%AAtes</t>
+          <t>Le_Monstre_aux_deux_têtes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Monstre aux deux têtes est le sixième roman de la série Les Évadés du temps écrite par Philippe Ébly. Ce roman est paru pour la première fois en 1984 chez Hachette dans la collection Bibliothèque verte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Monstre_aux_deux_t%C3%AAtes</t>
+          <t>Le_Monstre_aux_deux_têtes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ar-Tann, le druide de la Grande Forêt du VIIIe siècle (voir Un frère au fond des siècles) a fait appel aux évadés du temps car la Grande Forêt est menacée. Un dra'ak, monstre à deux têtes à l'haleine qui rend fou, dévaste le pays. Si les évadés du temps ne trouvent pas un moyen de le tuer, il n'y aura plus de Grande Forêt, plus de VIIIe siècle et plus d'avenir...
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Monstre_aux_deux_t%C3%AAtes</t>
+          <t>Le_Monstre_aux_deux_têtes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1984 : Hachette, coll. : Bibliothèque verte, cartonné. Illustrations de (inconnu).  (ISBN 2-01-009916-8),  (EAN 9782010099168)</t>
         </is>
